--- a/biology/Origine et évolution du vivant/Tetrapodomorpha/Tetrapodomorpha.xlsx
+++ b/biology/Origine et évolution du vivant/Tetrapodomorpha/Tetrapodomorpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tétrapodomorphes, Choanates, Choanata
-Les tétrapodomorphes (Tetrapodomorpha), parfois appelés choanates (Choanata), forment un groupe monophylétique de sarcoptérygiens qui contiennent les ancêtres des tétrapodes ainsi que les formes apparentés. Ils incluent un grand nombre de formes fossiles, apparues dès le Dévonien inférieur, intermédiaires entre les poissons et les tétrapodes, notamment Osteolepis (en), Panderichthys, Kenichthys (en) et Tungsenia (en)[3].
+Les tétrapodomorphes (Tetrapodomorpha), parfois appelés choanates (Choanata), forment un groupe monophylétique de sarcoptérygiens qui contiennent les ancêtres des tétrapodes ainsi que les formes apparentés. Ils incluent un grand nombre de formes fossiles, apparues dès le Dévonien inférieur, intermédiaires entre les poissons et les tétrapodes, notamment Osteolepis (en), Panderichthys, Kenichthys (en) et Tungsenia (en).
 Ce groupe est paraphylétique. Il faut lui ajouter tous les vertébrés terrestres pour obtenir un groupe naturel, monophylétique.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils sont notamment caractérisés par une disposition des os du crâne très similaire à celle des premiers tétrapodes, l'apparition de choanes (narines internes), des nageoires pectorales et pelviennes dont la structure du squelette interne évoquent celles des membres chiridiens des tétrapodes[4], mais ces membres sont horizontaux et aplatis, avec les articulations entre les trois segments assez peu mobiles, ce qui les rend incapables de supporter une sortie des eaux[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont notamment caractérisés par une disposition des os du crâne très similaire à celle des premiers tétrapodes, l'apparition de choanes (narines internes), des nageoires pectorales et pelviennes dont la structure du squelette interne évoquent celles des membres chiridiens des tétrapodes, mais ces membres sont horizontaux et aplatis, avec les articulations entre les trois segments assez peu mobiles, ce qui les rend incapables de supporter une sortie des eaux.
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taxonomie
-Taxonomie basée d'après Benton, 2004 et Swartz, 2012[6],[7].
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Taxonomie basée d'après Benton, 2004 et Swartz, 2012,.
 Sarcopterygii
 Tetrapodomorpha
 † Rhizodontida
@@ -568,9 +587,44 @@
 † Colosteidae
 † Baphetoidea
 Tetrapoda
-Les autres clades incluent les Eotetrapodiformes (Tinirau, Platycephalichthys, Tristichopteridae et les Elpistostegalia)[6]. Des vieux taxons qui comprennent des tétrapodes souches et basaux sont les Labyrinthodontia et les Ichthyostegalia.
-Relations phylogénétiques
-Le cladogramme est basé sur une analyse phylogénétique de 46 taxons utilisant 204 caractères par Brian Swartz en 2012[6] :
+Les autres clades incluent les Eotetrapodiformes (Tinirau, Platycephalichthys, Tristichopteridae et les Elpistostegalia). Des vieux taxons qui comprennent des tétrapodes souches et basaux sont les Labyrinthodontia et les Ichthyostegalia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tetrapodomorpha</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tetrapodomorpha</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Relations phylogénétiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme est basé sur une analyse phylogénétique de 46 taxons utilisant 204 caractères par Brian Swartz en 2012 :
 </t>
         </is>
       </c>
